--- a/Modelos UML/Descrição UseCases/Login.xlsx
+++ b/Modelos UML/Descrição UseCases/Login.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C99946-8FAC-48BD-8FE5-370783529568}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +51,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>Estar registado no sistema</t>
   </si>
   <si>
@@ -65,9 +61,6 @@
   </si>
   <si>
     <t>4. Coloca credenciais</t>
-  </si>
-  <si>
-    <t>5. Valida dados</t>
   </si>
   <si>
     <t>6. Informa que entrou com sucesso</t>
@@ -88,12 +81,18 @@
   </si>
   <si>
     <t>2. Indica que pretende fazer login</t>
+  </si>
+  <si>
+    <t>5. Valida credenciais</t>
+  </si>
+  <si>
+    <t>Cliente, Funcionário</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -644,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" s="15"/>
     </row>
@@ -683,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -692,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -711,13 +710,13 @@
       <c r="B7" s="18"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -725,13 +724,13 @@
       <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -739,14 +738,14 @@
       <c r="B11" s="19"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -756,18 +755,18 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/Modelos UML/Descrição UseCases/Login.xlsx
+++ b/Modelos UML/Descrição UseCases/Login.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167AC06F-DE8C-455C-8750-A68FE0D4C0CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Actor input</t>
   </si>
@@ -66,33 +67,30 @@
     <t>6. Informa que entrou com sucesso</t>
   </si>
   <si>
-    <t>5.1. Informa que login falhou</t>
-  </si>
-  <si>
-    <t>Alternativa 1
+    <t>3. Pede credenciais</t>
+  </si>
+  <si>
+    <t>2. Indica que pretende fazer login</t>
+  </si>
+  <si>
+    <t>5. Valida credenciais</t>
+  </si>
+  <si>
+    <t>Cliente, Funcionário</t>
+  </si>
+  <si>
+    <t>Exceção 1
 [Dados inválidos]
 (Passo 5)</t>
   </si>
   <si>
-    <t>Regressa a 4</t>
-  </si>
-  <si>
-    <t>3. Pede credenciais</t>
-  </si>
-  <si>
-    <t>2. Indica que pretende fazer login</t>
-  </si>
-  <si>
-    <t>5. Valida credenciais</t>
-  </si>
-  <si>
-    <t>Cliente, Funcionário</t>
+    <t>5.1. Informa que as credenciais são inválidas falhou</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -285,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -328,6 +326,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -643,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,7 +660,7 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -673,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15"/>
     </row>
@@ -716,7 +721,7 @@
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -724,7 +729,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -738,7 +743,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -755,27 +760,44 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
+    <row r="17" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>

--- a/Modelos UML/Descrição UseCases/Login.xlsx
+++ b/Modelos UML/Descrição UseCases/Login.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167AC06F-DE8C-455C-8750-A68FE0D4C0CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,13 +83,13 @@
 (Passo 5)</t>
   </si>
   <si>
-    <t>5.1. Informa que as credenciais são inválidas falhou</t>
+    <t>5.1. Informa que as credenciais são inválidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -304,6 +303,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -326,13 +332,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -648,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,40 +667,40 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -712,54 +711,54 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4"/>
@@ -768,32 +767,32 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Modelos UML/Descrição UseCases/Login.xlsx
+++ b/Modelos UML/Descrição UseCases/Login.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723143AE-4095-482B-9A37-5697C25D6C8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +55,6 @@
     <t>Estar registado no sistema</t>
   </si>
   <si>
-    <t>Ter acesso às suas informações</t>
-  </si>
-  <si>
     <t>1. Apresenta menu inicial</t>
   </si>
   <si>
@@ -84,12 +82,15 @@
   </si>
   <si>
     <t>5.1. Informa que as credenciais são inválidas</t>
+  </si>
+  <si>
+    <t>Autenticou-se no sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -647,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -695,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -714,13 +715,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -728,13 +729,13 @@
       <c r="B9" s="21"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="22"/>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -742,14 +743,14 @@
       <c r="B11" s="22"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -759,11 +760,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
